--- a/GINX_TimeTable_17H.xlsx
+++ b/GINX_TimeTable_17H.xlsx
@@ -301,6 +301,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -310,12 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -352,8 +352,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
@@ -363,7 +363,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="8864600"/>
+          <a:off x="3987800" y="5740400"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1771,8 +1771,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
@@ -1782,7 +1782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="4965700"/>
+          <a:off x="9740900" y="5334000"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1856,8 +1856,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
@@ -1867,7 +1867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="8483600"/>
+          <a:off x="9740900" y="3810000"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1939,10 +1939,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
@@ -1952,7 +1952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="4940300"/>
+          <a:off x="6858000" y="8115300"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2109,16 +2109,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2458720</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1785620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>398780</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2608580</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2126,9 +2126,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5452110" y="7326630"/>
-          <a:ext cx="2760980" cy="822960"/>
+        <a:xfrm rot="16200000">
+          <a:off x="9613900" y="6306820"/>
+          <a:ext cx="4622800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst/>
@@ -2524,53 +2524,53 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="22">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="22">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2583,7 +2583,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="22">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2629,7 +2629,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2675,7 +2675,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="22">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2721,7 +2721,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="22">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2767,7 +2767,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="22">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2813,7 +2813,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="22">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2859,7 +2859,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="22">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -2905,7 +2905,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="22">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -2951,7 +2951,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="17"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -2962,173 +2962,167 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="17"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="22">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="17"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="17"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="22">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="17"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="17"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="22">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" s="17"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="17"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3136,6 +3130,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3153,7 +3153,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3187,53 +3187,53 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16">
+      <c r="A2" s="22">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="16" thickBot="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16">
+      <c r="A6" s="22">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -3246,7 +3246,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16">
+      <c r="A10" s="22">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3292,7 +3292,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3338,7 +3338,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16">
+      <c r="A18" s="22">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3384,7 +3384,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" thickBot="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16">
+      <c r="A22" s="22">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3430,7 +3430,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" thickBot="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16">
+      <c r="A26" s="22">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3476,7 +3476,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16">
+      <c r="A30" s="22">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -3522,7 +3522,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="16" thickBot="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16">
+      <c r="A34" s="22">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -3568,7 +3568,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="16" thickBot="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="16">
+      <c r="A38" s="22">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -3614,7 +3614,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -3625,173 +3625,167 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="17"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="16" thickBot="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="16">
+      <c r="A42" s="22">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="16" thickBot="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="16">
+      <c r="A46" s="22">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="16" thickBot="1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="16">
+      <c r="A50" s="22">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="16" thickBot="1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3799,6 +3793,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable_17H.xlsx
+++ b/GINX_TimeTable_17H.xlsx
@@ -1192,61 +1192,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2344420</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flèche vers le haut 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6306820" y="6642100"/>
-          <a:ext cx="436880" cy="2672080"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2489,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -3123,6 +3068,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3130,12 +3081,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3786,6 +3731,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3793,12 +3744,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable_17H.xlsx
+++ b/GINX_TimeTable_17H.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1260" windowWidth="32720" windowHeight="25020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -436,9 +436,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
@@ -448,7 +448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="4991100"/>
+          <a:off x="6883400" y="4978400"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -774,7 +774,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2667000"/>
+    <xdr:ext cx="2870200" cy="2400300"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6"/>
@@ -783,7 +783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1092200" y="7327900"/>
-          <a:ext cx="2870200" cy="2667000"/>
+          <a:ext cx="2870200" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,10 +856,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1384300"/>
+    <xdr:ext cx="2870200" cy="1612900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7"/>
@@ -867,8 +867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="9042400"/>
-          <a:ext cx="2870200" cy="1384300"/>
+          <a:off x="6858000" y="8077200"/>
+          <a:ext cx="2870200" cy="1612900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,9 +1025,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
@@ -1037,7 +1037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="7493000"/>
+          <a:off x="6870700" y="6540500"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2052,61 +2052,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1785620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2608580</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flèche à angle droit 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="9613900" y="6306820"/>
-          <a:ext cx="4622800" cy="822960"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2434,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3068,12 +3013,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3081,6 +3020,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3731,12 +3676,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3744,6 +3683,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
